--- a/Processed Results/Mi 9T/Camera/Camera - Processed.xlsx
+++ b/Processed Results/Mi 9T/Camera/Camera - Processed.xlsx
@@ -8,23 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luuk1\Desktop\Bachelor Project\BachelorProject\Processed Results\Mi 9T\Camera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48274B62-AB82-4275-B8D5-6F34A639E81E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E3EEF9-FC84-4848-9B10-E79C244C22C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="250" yWindow="0" windowWidth="9990" windowHeight="9830" xr2:uid="{BD96B59B-3C3E-42C2-91CD-DAE8785DB1E9}"/>
+    <workbookView xWindow="1140" yWindow="970" windowWidth="9990" windowHeight="9830" xr2:uid="{BD96B59B-3C3E-42C2-91CD-DAE8785DB1E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Blad1!$A$98:$A$187</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Blad1!$B$98:$B$187</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Blad1!$A$98:$A$187</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Blad1!$B$98:$B$187</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Blad1!$A$34:$A$63</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Blad1!$B$33</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Blad1!$B$34:$B$63</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Blad1!$A$2:$A$31</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Blad1!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Blad1!$A$2:$A$31</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Blad1!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Blad1!$A$98:$A$187</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Blad1!$B$98:$B$187</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Blad1!$A$34:$A$63</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Blad1!$B$33</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Blad1!$B$34:$B$63</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">Blad1!$A$66:$A$95</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">Blad1!$B$65</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">Blad1!$B$66:$B$95</definedName>
@@ -47,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="20">
   <si>
     <t>Mean line</t>
   </si>
@@ -101,6 +99,12 @@
   </si>
   <si>
     <t>Relative std</t>
+  </si>
+  <si>
+    <t>Mean increase</t>
+  </si>
+  <si>
+    <t>Median increase</t>
   </si>
 </sst>
 </file>
@@ -2095,10 +2099,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2217,10 +2221,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2338,10 +2342,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2379,7 +2383,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{3F5A16A3-6E4C-4475-A634-1322A70DC713}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>Medium_frequency</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7199,10 +7203,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FE0459-F6C0-45BE-AD60-56F63431C3F0}">
-  <dimension ref="A1:E187"/>
+  <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B99" activeCellId="1" sqref="B98 B99:B187"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7416,7 +7420,7 @@
         <v>0.65389949328282682</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -7424,23 +7428,37 @@
         <v>206.76239999999899</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="1">
         <v>206.76239999999899</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="1">
         <v>203.58143999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D19">
+        <f xml:space="preserve"> ((206.815416 / 95.321842) * 100) - 100</f>
+        <v>116.96540022799812</v>
+      </c>
+      <c r="F19">
+        <f xml:space="preserve"> ((206.7624 / 95.22216) * 100) - 100</f>
+        <v>117.13685133796591</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -7448,7 +7466,7 @@
         <v>206.76239999999899</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -7456,7 +7474,7 @@
         <v>206.76239999999899</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -7464,7 +7482,7 @@
         <v>206.76239999999899</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -7472,7 +7490,7 @@
         <v>206.76239999999899</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -7480,7 +7498,7 @@
         <v>206.76239999999899</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -7488,7 +7506,7 @@
         <v>203.58143999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -7496,7 +7514,7 @@
         <v>206.76239999999899</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -7504,7 +7522,7 @@
         <v>206.76239999999899</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -7512,7 +7530,7 @@
         <v>205.17192</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -7520,7 +7538,7 @@
         <v>206.76239999999899</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -7528,7 +7546,7 @@
         <v>206.76239999999899</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -7536,7 +7554,7 @@
         <v>206.76239999999899</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -7743,7 +7761,7 @@
         <v>0.67938984943165948</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -7751,23 +7769,37 @@
         <v>207.80495999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="1">
         <v>207.80495999999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D50" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>12</v>
       </c>
       <c r="B51" s="1">
         <v>207.80495999999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D51">
+        <f xml:space="preserve"> ((208.5921 / 95.321842) * 100) - 100</f>
+        <v>118.82927944258569</v>
+      </c>
+      <c r="F51">
+        <f xml:space="preserve"> ((207.80496 / 95.22216) * 100) - 100</f>
+        <v>118.231722531814</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -7775,7 +7807,7 @@
         <v>207.80495999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -7783,7 +7815,7 @@
         <v>207.80495999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -7791,7 +7823,7 @@
         <v>207.80495999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -7799,7 +7831,7 @@
         <v>207.80495999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -7807,7 +7839,7 @@
         <v>207.80495999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -7815,7 +7847,7 @@
         <v>204.65639999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -7823,7 +7855,7 @@
         <v>207.80495999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -7831,7 +7863,7 @@
         <v>207.80495999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -7839,7 +7871,7 @@
         <v>209.37924000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -7847,7 +7879,7 @@
         <v>209.37924000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -7855,7 +7887,7 @@
         <v>209.37924000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -7863,7 +7895,7 @@
         <v>207.80495999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B64" s="2"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
@@ -8070,7 +8102,7 @@
         <v>1.4568857625309946</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>14</v>
       </c>
@@ -8078,23 +8110,37 @@
         <v>206.23068000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>14</v>
       </c>
       <c r="B82" s="1">
         <v>207.80495999999999</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D82" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>14</v>
       </c>
       <c r="B83" s="1">
         <v>207.80495999999999</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D83">
+        <f xml:space="preserve"> ((208.014864 / 95.321842) * 100) - 100</f>
+        <v>118.2237141409835</v>
+      </c>
+      <c r="F83">
+        <f xml:space="preserve"> ((207.80496 / 95.22216) * 100) - 100</f>
+        <v>118.231722531814</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>14</v>
       </c>
@@ -8102,7 +8148,7 @@
         <v>207.80495999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -8110,7 +8156,7 @@
         <v>207.80495999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -8118,7 +8164,7 @@
         <v>207.80495999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>14</v>
       </c>
@@ -8126,7 +8172,7 @@
         <v>207.80495999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>14</v>
       </c>
@@ -8134,7 +8180,7 @@
         <v>207.80495999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>14</v>
       </c>
@@ -8142,7 +8188,7 @@
         <v>204.65639999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -8150,7 +8196,7 @@
         <v>207.80495999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>14</v>
       </c>
@@ -8158,7 +8204,7 @@
         <v>206.23068000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -8166,7 +8212,7 @@
         <v>207.80495999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>14</v>
       </c>
@@ -8174,7 +8220,7 @@
         <v>206.23068000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>14</v>
       </c>
@@ -8182,7 +8228,7 @@
         <v>207.80495999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>14</v>
       </c>
@@ -8190,7 +8236,7 @@
         <v>203.08212</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B96" s="2"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -8318,23 +8364,37 @@
         <v>205.17192</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>10</v>
       </c>
       <c r="B113" s="1">
         <v>206.76239999999899</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D113" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>10</v>
       </c>
       <c r="B114" s="1">
         <v>206.76239999999899</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D114">
+        <f xml:space="preserve"> (D51 + D83 + D19) / 3</f>
+        <v>118.00613127052243</v>
+      </c>
+      <c r="F114">
+        <f xml:space="preserve"> (F19 + F51 + F83) / 3</f>
+        <v>117.86676546719798</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>10</v>
       </c>
@@ -8342,7 +8402,7 @@
         <v>203.58143999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>10</v>
       </c>
@@ -8350,7 +8410,7 @@
         <v>206.76239999999899</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>10</v>
       </c>
@@ -8358,7 +8418,7 @@
         <v>206.76239999999899</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>10</v>
       </c>
@@ -8366,7 +8426,7 @@
         <v>206.76239999999899</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>10</v>
       </c>
@@ -8374,7 +8434,7 @@
         <v>206.76239999999899</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>10</v>
       </c>
@@ -8382,7 +8442,7 @@
         <v>206.76239999999899</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>10</v>
       </c>
@@ -8390,7 +8450,7 @@
         <v>203.58143999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>10</v>
       </c>
@@ -8398,7 +8458,7 @@
         <v>206.76239999999899</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -8406,7 +8466,7 @@
         <v>206.76239999999899</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>10</v>
       </c>
@@ -8414,7 +8474,7 @@
         <v>205.17192</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>10</v>
       </c>
@@ -8422,7 +8482,7 @@
         <v>206.76239999999899</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>10</v>
       </c>
@@ -8430,7 +8490,7 @@
         <v>206.76239999999899</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>10</v>
       </c>
@@ -8438,7 +8498,7 @@
         <v>206.76239999999899</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>12</v>
       </c>
